--- a/care_activity_counts.xlsx
+++ b/care_activity_counts.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="n">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="3">
